--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Field Type</t>
   </si>
@@ -179,6 +179,12 @@
     <t>Maximum active power during curtailment (3rd party)</t>
   </si>
   <si>
+    <t>PPC_P_SET_ABS</t>
+  </si>
+  <si>
+    <t>Absolute active power setpoint</t>
+  </si>
+  <si>
     <t>PPC_P_SET_GRIDOP_ABS</t>
   </si>
   <si>
@@ -194,10 +200,28 @@
     <t>Relative active power setpoint (grid operator)</t>
   </si>
   <si>
+    <t>PPC_P_SET_MANUAL_ABS</t>
+  </si>
+  <si>
+    <t>Absolute active power setpoint (manually)</t>
+  </si>
+  <si>
+    <t>PPC_P_SET_MANUAL_REL</t>
+  </si>
+  <si>
+    <t>Relative active power setpoint (manually)</t>
+  </si>
+  <si>
     <t>PPC_P_SET_REL</t>
   </si>
   <si>
     <t>Actual valid active power setpoint</t>
+  </si>
+  <si>
+    <t>PPC_P_SET_RPC_ABS</t>
+  </si>
+  <si>
+    <t>Absolute active power setpoint (3rd party)</t>
   </si>
   <si>
     <t>PPC_P_SET_RPC_REL</t>
@@ -581,7 +605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,10 +931,10 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -918,17 +942,14 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -938,7 +959,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
@@ -952,10 +973,10 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -963,13 +984,16 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
+      <c r="F23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -977,13 +1001,13 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -991,13 +1015,69 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Field Type</t>
   </si>
@@ -185,6 +185,15 @@
     <t>Absolute active power setpoint</t>
   </si>
   <si>
+    <t>PPC_P_SET_CTRL_REL</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Relative active power correction value</t>
+  </si>
+  <si>
     <t>PPC_P_SET_GRIDOP_ABS</t>
   </si>
   <si>
@@ -192,9 +201,6 @@
   </si>
   <si>
     <t>PPC_P_SET_GRIDOP_REL</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>Relative active power setpoint (grid operator)</t>
@@ -605,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,10 +937,10 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -942,10 +948,10 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -959,7 +965,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
@@ -973,7 +979,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -987,14 +993,11 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
@@ -1004,11 +1007,14 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -1018,7 +1024,7 @@
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
@@ -1032,10 +1038,10 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1043,10 +1049,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
@@ -1060,7 +1066,7 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -1074,10 +1080,24 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Field Type</t>
   </si>
@@ -239,7 +239,13 @@
     <t>PPC_P_SET_STATIC_ABS</t>
   </si>
   <si>
+    <t>Absolute active power setpoint (static)</t>
+  </si>
+  <si>
     <t>PPC_P_SET_STATIC_REL</t>
+  </si>
+  <si>
+    <t>Relative active power setpoint (static)</t>
   </si>
   <si>
     <t>PPC_Q_AC</t>
@@ -1061,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1069,13 +1075,13 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1083,13 +1089,13 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1097,13 +1103,13 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1111,13 +1117,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1125,13 +1131,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Field Type</t>
   </si>
@@ -134,6 +134,51 @@
     <t>datapoints</t>
   </si>
   <si>
+    <t>PPC_BAT_PF_CTRL</t>
+  </si>
+  <si>
+    <t>Power factor correction value (battery)</t>
+  </si>
+  <si>
+    <t>PPC_BAT_P_AC_INV</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Sum of inverter active power (battery)</t>
+  </si>
+  <si>
+    <t>PPC_BAT_P_CTRL_REL</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Active power correction value (battery)</t>
+  </si>
+  <si>
+    <t>PPC_BAT_Q_AC_INV</t>
+  </si>
+  <si>
+    <t>VAr</t>
+  </si>
+  <si>
+    <t>Sum of inverter reactive power (battery)</t>
+  </si>
+  <si>
+    <t>PPC_BAT_Q_CTRL_REL</t>
+  </si>
+  <si>
+    <t>Reactive power correction value (battery)</t>
+  </si>
+  <si>
+    <t>PPC_BAT_SOC</t>
+  </si>
+  <si>
+    <t>State of charge</t>
+  </si>
+  <si>
     <t>PPC_PF</t>
   </si>
   <si>
@@ -146,12 +191,39 @@
     <t>Power factor setpoint</t>
   </si>
   <si>
+    <t>PPC_PV_PF_CTRL</t>
+  </si>
+  <si>
+    <t>Power factor correction value (PV)</t>
+  </si>
+  <si>
+    <t>PPC_PV_P_AC_INV</t>
+  </si>
+  <si>
+    <t>Summe Wechselrichter-Wirkleistung (PV)</t>
+  </si>
+  <si>
+    <t>PPC_PV_P_CTRL_REL</t>
+  </si>
+  <si>
+    <t>Active power correction value (PV)</t>
+  </si>
+  <si>
+    <t>PPC_PV_Q_AC_INV</t>
+  </si>
+  <si>
+    <t>Sum of inverter reactive power (PV)</t>
+  </si>
+  <si>
+    <t>PPC_PV_Q_CTRL_REL</t>
+  </si>
+  <si>
+    <t>Reactive power correction value (PV)</t>
+  </si>
+  <si>
     <t>PPC_P_AC</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Actual active power</t>
   </si>
   <si>
@@ -188,9 +260,6 @@
     <t>PPC_P_SET_CTRL_REL</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Relative active power correction value</t>
   </si>
   <si>
@@ -249,9 +318,6 @@
   </si>
   <si>
     <t>PPC_Q_AC</t>
-  </si>
-  <si>
-    <t>VAr</t>
   </si>
   <si>
     <t>Actual reactive power</t>
@@ -305,22 +371,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -619,11 +686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,14 +698,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="65.983887" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="54.129639" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="54.13" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -850,8 +917,11 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -859,16 +929,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -876,13 +943,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -890,13 +957,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -904,13 +971,13 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -918,13 +985,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -932,13 +996,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -946,13 +1007,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -960,13 +1018,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -974,13 +1032,13 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -988,13 +1046,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1002,13 +1060,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,13 +1074,13 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1033,13 +1091,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,13 +1105,13 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1061,13 +1119,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1075,13 +1133,13 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1089,10 +1147,10 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>79</v>
@@ -1106,7 +1164,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1120,7 +1178,7 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>83</v>
@@ -1134,17 +1192,173 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1153,5 +1367,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -161,7 +161,7 @@
     <t>PPC_BAT_Q_AC_INV</t>
   </si>
   <si>
-    <t>VAr</t>
+    <t>var</t>
   </si>
   <si>
     <t>Sum of inverter reactive power (battery)</t>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Field Type</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Actual valid reactive power setpoint</t>
+  </si>
+  <si>
+    <t>STATE[1..x]</t>
+  </si>
+  <si>
+    <t>Global power plant controller state conditions</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,6 +1361,17 @@
         <v>107</v>
       </c>
     </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -242,7 +242,7 @@
     <t>PPC_P_AC_INV</t>
   </si>
   <si>
-    <t>Sum of inverter actual active power</t>
+    <t>Inverter active power</t>
   </si>
   <si>
     <t>PPC_P_AC_RPC_MAX</t>
@@ -260,7 +260,7 @@
     <t>PPC_P_SET_CTRL_REL</t>
   </si>
   <si>
-    <t>Relative active power correction value</t>
+    <t>Active power correction value</t>
   </si>
   <si>
     <t>PPC_P_SET_GRIDOP_ABS</t>
@@ -272,7 +272,7 @@
     <t>PPC_P_SET_GRIDOP_REL</t>
   </si>
   <si>
-    <t>Relative active power setpoint (grid operator)</t>
+    <t>Active power setpoint (grid operator)</t>
   </si>
   <si>
     <t>PPC_P_SET_MANUAL_ABS</t>
@@ -290,7 +290,7 @@
     <t>PPC_P_SET_REL</t>
   </si>
   <si>
-    <t>Actual valid active power setpoint</t>
+    <t>Active power setpoint</t>
   </si>
   <si>
     <t>PPC_P_SET_RPC_ABS</t>
@@ -338,7 +338,7 @@
     <t>PPC_Q_SET_REL</t>
   </si>
   <si>
-    <t>Actual valid reactive power setpoint</t>
+    <t>Reactive power setpoint</t>
   </si>
   <si>
     <t>STATE[1..x]</t>

--- a/import-specification/devices/power-plant-controller.xlsx
+++ b/import-specification/devices/power-plant-controller.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Field Type</t>
   </si>
@@ -287,6 +287,12 @@
     <t>Relative active power setpoint (manually)</t>
   </si>
   <si>
+    <t>PPC_P_SET_MODE</t>
+  </si>
+  <si>
+    <t>Active power control method  0: No configuration found 1: Variable fixed value Pvar fix 2: Variable fixed value Pvar DI 3: Variable fixed value Pvar AI 4: Variable fixed value Pvar Modbus 5: Remote Power Control (RPC) 100: LFSM-O 101: LFSM-U 102: FSM 112: RPC (Remote Power Control) &amp; FSM 200: Fail-safe operation (hold last setpoint) 201: Fail-safe operation (default setpoint) 202: Fail-safe operation (system fallback value) 203: Fail-safe operation (Automatic grid disconnection)</t>
+  </si>
+  <si>
     <t>PPC_P_SET_REL</t>
   </si>
   <si>
@@ -335,10 +341,25 @@
     <t>Absolute reactive power setpoint</t>
   </si>
   <si>
+    <t>PPC_Q_SET_MODE</t>
+  </si>
+  <si>
+    <t>Reactive power control method  0: No configuration found 1: Variable fixed value cos φvar fix 2: Variable fixed value cos φvar DI 3: Variable fixed value cos φvar AI 4: Variable fixed value cos φvar Modbus 5: Characteristic curve cos φ (P) 6: Characteristic curve cos φ (V) 7: Variable fixed value Qvar fix 8: Variable fixed value Qvar DI 9: Variable fixed value Qvar AI 10: Variable fixed value Qvar Modbus 11: Characteristic curve Q (P) 12: Characteristic curve Q (V) 13: Characteristic curve Q (tan φ) 14: Voltage control Q (V droop) 15: Characteristic curve Q(V) Modbus, from firmware 28.0.2 on 16: Characteristic curve cos φ (P) Modbus, from firmware 28.0.2 on 100: Reactive power compensation 200: Fail-safe operation (hold last setpoint) 201: Fail-safe operation (default setpoint) 202: Fail-safe operation (system fallback value)</t>
+  </si>
+  <si>
     <t>PPC_Q_SET_REL</t>
   </si>
   <si>
     <t>Reactive power setpoint</t>
+  </si>
+  <si>
+    <t>PPC_V_REF_Q_V_SHIFT</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Voltage shift for Q(V) curve</t>
   </si>
   <si>
     <t>STATE[1..x]</t>
@@ -696,7 +717,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +728,7 @@
     <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="988.473" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="54.13" bestFit="true" customWidth="true" style="0"/>
@@ -1239,15 +1260,9 @@
       <c r="B35" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
       <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
@@ -1257,11 +1272,14 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>93</v>
       </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
@@ -1271,7 +1289,7 @@
         <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>95</v>
@@ -1285,7 +1303,7 @@
         <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
@@ -1299,7 +1317,7 @@
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
@@ -1313,7 +1331,7 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
         <v>101</v>
@@ -1355,7 +1373,7 @@
         <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>107</v>
@@ -1370,6 +1388,45 @@
       </c>
       <c r="D44" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
